--- a/szoftlab4_munkaidok.xlsx
+++ b/szoftlab4_munkaidok.xlsx
@@ -9,13 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="0" windowWidth="25200" windowHeight="12570"/>
+    <workbookView xWindow="4500" yWindow="0" windowWidth="25200" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Munkalap1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -391,7 +390,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -667,8 +666,8 @@
         <v>11</v>
       </c>
       <c r="B10" s="4">
-        <f>1.5</f>
-        <v>1.5</v>
+        <f>1.5+1</f>
+        <v>2.5</v>
       </c>
       <c r="C10" s="4">
         <f>1.5+2</f>
@@ -696,6 +695,26 @@
       <c r="A11" s="1">
         <v>13</v>
       </c>
+      <c r="B11">
+        <f>1+1.5+7</f>
+        <v>9.5</v>
+      </c>
+      <c r="C11">
+        <f>1+2+1.5</f>
+        <v>4.5</v>
+      </c>
+      <c r="D11">
+        <f>1.5</f>
+        <v>1.5</v>
+      </c>
+      <c r="E11">
+        <f>7</f>
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <f>2+7+7+2+2.5+2</f>
+        <v>22.5</v>
+      </c>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -770,27 +789,27 @@
       </c>
       <c r="B16">
         <f>SUM(B2:B12)</f>
-        <v>68.66</v>
+        <v>79.16</v>
       </c>
       <c r="C16">
         <f>SUM(C2:C12)</f>
-        <v>62.75</v>
+        <v>67.25</v>
       </c>
       <c r="D16">
         <f>SUM(D2:D12)</f>
-        <v>32.49</v>
+        <v>33.99</v>
       </c>
       <c r="E16">
         <f>SUM(E2:E12)</f>
-        <v>66.75</v>
+        <v>73.75</v>
       </c>
       <c r="F16">
         <f>SUM(F2:F12)</f>
-        <v>67.819999999999993</v>
+        <v>90.32</v>
       </c>
       <c r="H16">
         <f>SUM(B16:F16)</f>
-        <v>298.47000000000003</v>
+        <v>344.47</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -849,23 +868,23 @@
       </c>
       <c r="B20" s="2">
         <f t="shared" si="0"/>
-        <v>0.23003987000368542</v>
+        <v>0.22980230499027487</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="0"/>
-        <v>0.21023888498006499</v>
+        <v>0.19522745086654861</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="0"/>
-        <v>0.108855161322746</v>
+        <v>9.8673324237234003E-2</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="0"/>
-        <v>0.22364056689114481</v>
+        <v>0.21409701860829677</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>0.22722551680235864</v>
+        <v>0.26219990129764564</v>
       </c>
     </row>
   </sheetData>
